--- a/xlsx/Ars Technica_intext.xlsx
+++ b/xlsx/Ars Technica_intext.xlsx
@@ -29,13 +29,13 @@
     <t>康泰纳仕</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Ars Technica</t>
+    <t>政策_政策_维基百科_Ars Technica</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alexa_Internet</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%81%E5%93%A1</t>
   </si>
   <si>
-    <t>裁員</t>
+    <t>裁员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B9%E6%9E%9C%E7%94%B5%E8%84%91</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%99%A8%E6%A2%B0%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>網絡器械公司</t>
+    <t>网络器械公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E6%8D%AE%E7%AE%A1%E7%90%86</t>
